--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>688791.8661896478</v>
+        <v>685031.1288480366</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33103927.34340674</v>
+        <v>33103927.34340676</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5973276.738376969</v>
+        <v>5973276.738376973</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4783496.474125805</v>
+        <v>4783496.474125806</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="4">
@@ -816,70 +816,70 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="U4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
+      <c r="V4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="V6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="W6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
     </row>
     <row r="7">
@@ -1065,13 +1065,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15.18661160258025</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>194.2982527369212</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.480762927382</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>50.94983199904545</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>49.34995949258592</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>169.8556195777917</v>
       </c>
       <c r="W14" t="n">
-        <v>116.6395830120773</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>147.3160242984189</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>37.78345135320145</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>295.5638572013751</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>240.2369640576397</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>120.6110839497542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>197.3211597695594</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>255.5021511140229</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>46.70022280275749</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>14.97635170184148</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>90.25324606915903</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>17.5014410123368</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>126.3468429909161</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>169.8049114985336</v>
+        <v>333.1452612251496</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>71.56670670047068</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>257.8507722241342</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>414.2730983435432</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>309.0332570169318</v>
       </c>
     </row>
     <row r="33">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>379.4716986158435</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>286.3192526827061</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>84.8121627214226</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>148.7810968357136</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3508,19 +3508,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>205.5962459080378</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>158.5177470452067</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.7303221424134</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>17.65107626759499</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>344.5266148820492</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>252.6866080349043</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>97.56196043095528</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3957,10 +3957,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>181.8996817528551</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>46.33968497442402</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>213.5382021707748</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>95.68975763562237</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>57.79441202389363</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C2" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549119</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419042</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4330,22 +4330,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P2" t="n">
         <v>124.3581591730573</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>85.10890627790634</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
+        <v>42.55445313895319</v>
+      </c>
+      <c r="P3" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4454,7 +4454,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C4" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D4" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E4" t="n">
         <v>3.305200243802188</v>
@@ -4491,49 +4491,49 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L4" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M4" t="n">
-        <v>126.0107592949584</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N4" t="n">
-        <v>165.2600121901094</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O4" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P4" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U4" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4567,25 +4567,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N5" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O5" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4643,28 +4643,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N6" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O6" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P6" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
         <v>165.2600121901094</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="W6" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="X6" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="Y6" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>102.1098645848476</v>
+      </c>
+      <c r="C7" t="n">
+        <v>102.1098645848476</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102.1098645848476</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60.37753827421391</v>
+      </c>
+      <c r="F7" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="C7" t="n">
+      <c r="G7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
         <v>3.305200243802188</v>
@@ -4725,22 +4725,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W7" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,25 +4807,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O8" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q8" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
         <v>45.03752655443588</v>
@@ -4880,31 +4880,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N9" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O9" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
         <v>3.305200243802188</v>
@@ -4962,19 +4962,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N10" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
         <v>83.45630615600527</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T10" t="n">
-        <v>143.8421908954813</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="U10" t="n">
-        <v>143.8421908954813</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="V10" t="n">
-        <v>143.8421908954813</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8421908954813</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="X10" t="n">
-        <v>128.5021791757032</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
         <v>316.9281030050443</v>
@@ -5035,19 +5035,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.24425759636</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1552.388803007393</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X11" t="n">
-        <v>1552.388803007393</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="Y11" t="n">
-        <v>1171.095103080744</v>
+        <v>513.1889643554698</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>750.041858240633</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C13" t="n">
-        <v>577.480146723858</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D13" t="n">
-        <v>577.480146723858</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>407.7221429745952</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>231.0150889363514</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>116.635590151373</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>488.1941452900667</v>
       </c>
       <c r="L13" t="n">
-        <v>831.5726843696448</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M13" t="n">
-        <v>1340.193340120865</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.692251924754</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498297</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.280147645512</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.8604769596202</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1782.900983623584</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D14" t="n">
         <v>908.8487259814518</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5314,16 +5314,16 @@
         <v>2319.861207662533</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.289874755673</v>
       </c>
       <c r="W14" t="n">
-        <v>2202.043447044273</v>
+        <v>1743.434420166706</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.900983623584</v>
+        <v>1743.434420166706</v>
       </c>
       <c r="Y14" t="n">
-        <v>1782.900983623584</v>
+        <v>1335.14829646636</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5360,19 +5360,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.5014354710329</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>670.9397239542578</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>505.0617311557805</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895472</v>
@@ -5442,19 +5442,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>718.6204178572102</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N16" t="n">
-        <v>1288.378132818744</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O16" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.32005419002</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.32005419002</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1210.264145394208</v>
+        <v>1992.02355888107</v>
       </c>
       <c r="C17" t="n">
-        <v>911.7147946857485</v>
+        <v>1553.881086064493</v>
       </c>
       <c r="D17" t="n">
-        <v>475.805009860193</v>
+        <v>1117.971301238938</v>
       </c>
       <c r="E17" t="n">
-        <v>475.805009860193</v>
+        <v>1117.971301238938</v>
       </c>
       <c r="F17" t="n">
-        <v>47.93758026940076</v>
+        <v>690.1038716481455</v>
       </c>
       <c r="G17" t="n">
-        <v>47.93758026940076</v>
+        <v>290.6011803276227</v>
       </c>
       <c r="H17" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I17" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J17" t="n">
-        <v>276.7843057640267</v>
+        <v>312.6047130658806</v>
       </c>
       <c r="K17" t="n">
-        <v>513.0559561432475</v>
+        <v>548.8763634451016</v>
       </c>
       <c r="L17" t="n">
-        <v>806.1718310071482</v>
+        <v>841.9922383090022</v>
       </c>
       <c r="M17" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454267</v>
       </c>
       <c r="O17" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.52094299556</v>
       </c>
       <c r="P17" t="n">
-        <v>2079.62123417483</v>
+        <v>2079.621234174829</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.202429185897</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="S17" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="T17" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="U17" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="V17" t="n">
-        <v>2034.262063403864</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="W17" t="n">
-        <v>1629.406608814898</v>
+        <v>1992.02355888107</v>
       </c>
       <c r="X17" t="n">
-        <v>1210.264145394208</v>
+        <v>1992.02355888107</v>
       </c>
       <c r="Y17" t="n">
-        <v>1210.264145394208</v>
+        <v>1992.02355888107</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>164.2513307131476</v>
       </c>
       <c r="G18" t="n">
-        <v>79.88023030280451</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H18" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I18" t="n">
-        <v>82.15431644087688</v>
+        <v>82.15431644087685</v>
       </c>
       <c r="J18" t="n">
         <v>176.047655787344</v>
       </c>
       <c r="K18" t="n">
-        <v>336.5263278415143</v>
+        <v>336.5263278415142</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165365</v>
+        <v>552.3097067165364</v>
       </c>
       <c r="M18" t="n">
-        <v>804.118732019234</v>
+        <v>804.1187320192339</v>
       </c>
       <c r="N18" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O18" t="n">
-        <v>1299.045295755085</v>
+        <v>1299.045295755084</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.819596319891</v>
+        <v>1488.81959631989</v>
       </c>
       <c r="Q18" t="n">
         <v>1615.678690528125</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508.2066623116776</v>
+        <v>731.705529961164</v>
       </c>
       <c r="C19" t="n">
-        <v>335.6449507949025</v>
+        <v>559.1438184443889</v>
       </c>
       <c r="D19" t="n">
-        <v>169.7669579964252</v>
+        <v>559.1438184443889</v>
       </c>
       <c r="E19" t="n">
-        <v>169.7669579964252</v>
+        <v>389.3858146951261</v>
       </c>
       <c r="F19" t="n">
-        <v>47.93758026940076</v>
+        <v>212.6787606568823</v>
       </c>
       <c r="G19" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H19" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I19" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J19" t="n">
-        <v>193.4229291362737</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K19" t="n">
-        <v>564.9814842749674</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L19" t="n">
-        <v>1107.062167661227</v>
+        <v>327.51414615744</v>
       </c>
       <c r="M19" t="n">
-        <v>1448.907131398606</v>
+        <v>755.1718538795109</v>
       </c>
       <c r="N19" t="n">
-        <v>1576.406043202496</v>
+        <v>1324.929568841045</v>
       </c>
       <c r="O19" t="n">
-        <v>1694.171924550258</v>
+        <v>1862.364699414588</v>
       </c>
       <c r="P19" t="n">
-        <v>2142.447874698283</v>
+        <v>2310.640649562613</v>
       </c>
       <c r="Q19" t="n">
-        <v>2380.40792079327</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="S19" t="n">
-        <v>2252.452474974272</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="T19" t="n">
-        <v>2010.205250877679</v>
+        <v>2154.631789373443</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.818618926422</v>
+        <v>1955.317486575908</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.863110796852</v>
+        <v>1668.361978446339</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.836706383144</v>
+        <v>1396.33557403263</v>
       </c>
       <c r="X19" t="n">
-        <v>927.4449517165565</v>
+        <v>1150.943819366043</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.0252810306647</v>
+        <v>923.524148680151</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1578.80399747851</v>
+        <v>1169.797775609004</v>
       </c>
       <c r="C20" t="n">
-        <v>1578.80399747851</v>
+        <v>1169.797775609004</v>
       </c>
       <c r="D20" t="n">
-        <v>1578.80399747851</v>
+        <v>733.8879907834485</v>
       </c>
       <c r="E20" t="n">
-        <v>1145.029252636805</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F20" t="n">
-        <v>717.1618230460132</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="G20" t="n">
-        <v>317.6591317254903</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H20" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I20" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J20" t="n">
-        <v>276.7843057640267</v>
+        <v>276.7843057640266</v>
       </c>
       <c r="K20" t="n">
         <v>513.0559561432475</v>
@@ -5770,34 +5770,34 @@
         <v>1776.700535693706</v>
       </c>
       <c r="P20" t="n">
-        <v>2079.62123417483</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.202429185897</v>
+        <v>2244.382021884042</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="S20" t="n">
-        <v>2396.879013470038</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.879013470038</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="U20" t="n">
-        <v>2396.879013470038</v>
+        <v>2356.412643684834</v>
       </c>
       <c r="V20" t="n">
-        <v>2034.262063403864</v>
+        <v>1993.79569361866</v>
       </c>
       <c r="W20" t="n">
-        <v>1987.090121178857</v>
+        <v>1588.940239029693</v>
       </c>
       <c r="X20" t="n">
-        <v>1987.090121178857</v>
+        <v>1169.797775609004</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.80399747851</v>
+        <v>1169.797775609004</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>164.2513307131476</v>
       </c>
       <c r="G21" t="n">
-        <v>79.88023030280451</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H21" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I21" t="n">
-        <v>82.15431644087688</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J21" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K21" t="n">
-        <v>336.5263278415143</v>
+        <v>336.5263278415142</v>
       </c>
       <c r="L21" t="n">
-        <v>552.3097067165365</v>
+        <v>552.3097067165364</v>
       </c>
       <c r="M21" t="n">
-        <v>804.118732019234</v>
+        <v>804.1187320192339</v>
       </c>
       <c r="N21" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O21" t="n">
-        <v>1299.045295755085</v>
+        <v>1299.045295755084</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.819596319891</v>
+        <v>1488.81959631989</v>
       </c>
       <c r="Q21" t="n">
         <v>1615.678690528125</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>942.272505127258</v>
+        <v>695.428399243581</v>
       </c>
       <c r="C22" t="n">
-        <v>769.7107936104829</v>
+        <v>522.8666877268059</v>
       </c>
       <c r="D22" t="n">
-        <v>754.5831656288249</v>
+        <v>356.9886949283286</v>
       </c>
       <c r="E22" t="n">
-        <v>584.8251618795622</v>
+        <v>356.9886949283286</v>
       </c>
       <c r="F22" t="n">
-        <v>408.1181078413184</v>
+        <v>180.2816408900848</v>
       </c>
       <c r="G22" t="n">
-        <v>243.3769274538368</v>
+        <v>180.2816408900848</v>
       </c>
       <c r="H22" t="n">
-        <v>111.0328668331527</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I22" t="n">
-        <v>47.93758026940076</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8432439715839</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K22" t="n">
-        <v>221.9862793056023</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L22" t="n">
-        <v>764.0669626918612</v>
+        <v>512.59048833041</v>
       </c>
       <c r="M22" t="n">
-        <v>1354.155222211304</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N22" t="n">
-        <v>1923.912937172838</v>
+        <v>1672.436462811387</v>
       </c>
       <c r="O22" t="n">
-        <v>2041.678818520599</v>
+        <v>2209.87159338493</v>
       </c>
       <c r="P22" t="n">
-        <v>2142.447874698283</v>
+        <v>2310.640649562613</v>
       </c>
       <c r="Q22" t="n">
-        <v>2380.40792079327</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.879013470038</v>
+        <v>2396.879013470037</v>
       </c>
       <c r="S22" t="n">
-        <v>2252.452474974272</v>
+        <v>2252.452474974271</v>
       </c>
       <c r="T22" t="n">
-        <v>2252.452474974272</v>
+        <v>2010.205250877678</v>
       </c>
       <c r="U22" t="n">
-        <v>1974.065843023015</v>
+        <v>1919.040355858325</v>
       </c>
       <c r="V22" t="n">
-        <v>1687.110334893446</v>
+        <v>1632.084847728756</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.083930479737</v>
+        <v>1360.058443315047</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.69217581315</v>
+        <v>1114.66668864846</v>
       </c>
       <c r="Y22" t="n">
-        <v>942.272505127258</v>
+        <v>887.2470179625682</v>
       </c>
     </row>
     <row r="23">
@@ -5965,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1923.190110717787</v>
+        <v>1351.1057771224</v>
       </c>
       <c r="C23" t="n">
-        <v>1485.047637901211</v>
+        <v>912.9633043058229</v>
       </c>
       <c r="D23" t="n">
-        <v>1049.137853075655</v>
+        <v>477.0535194802674</v>
       </c>
       <c r="E23" t="n">
-        <v>615.3631082339502</v>
+        <v>477.0535194802674</v>
       </c>
       <c r="F23" t="n">
-        <v>187.495678643158</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G23" t="n">
-        <v>187.495678643158</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H23" t="n">
-        <v>59.87260491495993</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I23" t="n">
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L23" t="n">
-        <v>1265.914466611436</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M23" t="n">
-        <v>1592.062354780223</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N23" t="n">
-        <v>1923.4876567567</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O23" t="n">
-        <v>2236.443171297993</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P23" t="n">
-        <v>2503.543462477262</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R23" t="n">
-        <v>2993.630245747996</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
         <v>2953.163875962794</v>
@@ -6022,19 +6022,19 @@
         <v>2953.163875962794</v>
       </c>
       <c r="U23" t="n">
-        <v>2694.093184484308</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V23" t="n">
-        <v>2331.476234418134</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W23" t="n">
-        <v>2331.476234418134</v>
+        <v>2185.691471307654</v>
       </c>
       <c r="X23" t="n">
-        <v>2331.476234418134</v>
+        <v>2185.691471307654</v>
       </c>
       <c r="Y23" t="n">
-        <v>1923.190110717787</v>
+        <v>1777.405347607307</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G24" t="n">
-        <v>91.81525494836367</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H24" t="n">
-        <v>59.87260491495993</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6135,28 +6135,28 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
       </c>
       <c r="I25" t="n">
-        <v>59.87260491495993</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.7782686171431</v>
+        <v>122.9540426842108</v>
       </c>
       <c r="K25" t="n">
-        <v>490.3368237558368</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L25" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M25" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N25" t="n">
         <v>1921.680801119005</v>
@@ -6171,10 +6171,10 @@
         <v>2977.159153071229</v>
       </c>
       <c r="R25" t="n">
-        <v>2993.630245747996</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T25" t="n">
         <v>2606.956483155638</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1967.087149614371</v>
+        <v>1963.656480502991</v>
       </c>
       <c r="C26" t="n">
-        <v>1528.944676797794</v>
+        <v>1963.656480502991</v>
       </c>
       <c r="D26" t="n">
-        <v>1093.034891972238</v>
+        <v>1527.746695677435</v>
       </c>
       <c r="E26" t="n">
-        <v>659.2601471305336</v>
+        <v>1093.97195083573</v>
       </c>
       <c r="F26" t="n">
-        <v>231.3927175397413</v>
+        <v>666.104521244938</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,28 +6226,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1355.393174909598</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
@@ -6265,13 +6265,13 @@
         <v>2371.942604203337</v>
       </c>
       <c r="W26" t="n">
-        <v>1967.087149614371</v>
+        <v>2371.942604203337</v>
       </c>
       <c r="X26" t="n">
-        <v>1967.087149614371</v>
+        <v>2371.942604203337</v>
       </c>
       <c r="Y26" t="n">
-        <v>1967.087149614371</v>
+        <v>1963.656480502991</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
         <v>816.053756664793</v>
@@ -6372,10 +6372,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6384,16 +6384,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>122.9540426842108</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558368</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
         <v>1921.680801119005</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1795.567036989589</v>
+        <v>1699.43571835685</v>
       </c>
       <c r="C29" t="n">
-        <v>1357.424564173013</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D29" t="n">
-        <v>921.5147793474571</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E29" t="n">
-        <v>487.7400345057522</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F29" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,28 +6463,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>1265.914466611436</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1592.062354780223</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>1923.487656756701</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
@@ -6493,22 +6493,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V29" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W29" t="n">
-        <v>2221.866607474497</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X29" t="n">
-        <v>2221.866607474497</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y29" t="n">
-        <v>2221.866607474497</v>
+        <v>2125.735288841758</v>
       </c>
     </row>
     <row r="30">
@@ -6600,19 +6600,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6630,16 +6630,16 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.92308615747</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119005</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1751.885228972103</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1313.742756155526</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>877.8329713299709</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>459.3752962354828</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>459.3752962354828</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6703,49 +6703,49 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417247</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L32" t="n">
-        <v>1253.361543105625</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M32" t="n">
-        <v>1579.509431274412</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.93473325089</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.890247792182</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P32" t="n">
-        <v>2490.990538971451</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2522.788302738623</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2160.17135267245</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>2160.17135267245</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>2160.17135267245</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.885228972103</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>555.2373584323959</v>
+        <v>555.2373584323961</v>
       </c>
       <c r="C33" t="n">
-        <v>448.7808972690382</v>
+        <v>448.7808972690385</v>
       </c>
       <c r="D33" t="n">
-        <v>353.6906084155915</v>
+        <v>353.6906084155917</v>
       </c>
       <c r="E33" t="n">
-        <v>259.5701937425452</v>
+        <v>259.5701937425454</v>
       </c>
       <c r="F33" t="n">
-        <v>176.1863553587068</v>
+        <v>176.186355358707</v>
       </c>
       <c r="G33" t="n">
         <v>91.81525494836369</v>
@@ -6776,19 +6776,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6815,16 +6815,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>1143.217228760864</v>
+        <v>1143.217228760865</v>
       </c>
       <c r="W33" t="n">
-        <v>957.8944744940584</v>
+        <v>957.8944744940586</v>
       </c>
       <c r="X33" t="n">
-        <v>803.0270387329383</v>
+        <v>803.0270387329385</v>
       </c>
       <c r="Y33" t="n">
-        <v>676.5412595121591</v>
+        <v>676.5412595121593</v>
       </c>
     </row>
     <row r="34">
@@ -6837,19 +6837,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6858,13 +6858,13 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>490.3368237558368</v>
+        <v>469.7712501553981</v>
       </c>
       <c r="L34" t="n">
-        <v>1032.417507142096</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M34" t="n">
         <v>1183.730311293139</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>917.6221099366611</v>
+        <v>1572.881095460381</v>
       </c>
       <c r="C35" t="n">
-        <v>917.6221099366611</v>
+        <v>1134.738622643805</v>
       </c>
       <c r="D35" t="n">
-        <v>481.7123251111056</v>
+        <v>751.4338765671952</v>
       </c>
       <c r="E35" t="n">
-        <v>47.93758026940077</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="F35" t="n">
-        <v>47.93758026940077</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="G35" t="n">
-        <v>47.93758026940077</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H35" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="I35" t="n">
         <v>119.1375305205814</v>
@@ -6940,25 +6940,25 @@
         <v>276.7843057640267</v>
       </c>
       <c r="K35" t="n">
-        <v>548.8763634451034</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L35" t="n">
-        <v>841.9922383090041</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.140126477791</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N35" t="n">
-        <v>1499.565428454269</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O35" t="n">
-        <v>1812.520942995561</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P35" t="n">
-        <v>2079.621234174831</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.202429185898</v>
+        <v>2280.202429185897</v>
       </c>
       <c r="R35" t="n">
         <v>2396.879013470038</v>
@@ -6973,16 +6973,16 @@
         <v>2396.879013470038</v>
       </c>
       <c r="V35" t="n">
-        <v>2034.262063403865</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="W35" t="n">
-        <v>1745.050697057697</v>
+        <v>1992.023558881071</v>
       </c>
       <c r="X35" t="n">
-        <v>1325.908233637008</v>
+        <v>1572.881095460381</v>
       </c>
       <c r="Y35" t="n">
-        <v>917.6221099366611</v>
+        <v>1572.881095460381</v>
       </c>
     </row>
     <row r="36">
@@ -7004,28 +7004,28 @@
         <v>247.635169096986</v>
       </c>
       <c r="F36" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G36" t="n">
-        <v>79.88023030280452</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H36" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="I36" t="n">
-        <v>82.1543164408769</v>
+        <v>82.15431644087687</v>
       </c>
       <c r="J36" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K36" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L36" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M36" t="n">
-        <v>804.1187320192339</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N36" t="n">
         <v>1062.592392940554</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.2648661948145</v>
+        <v>652.6332008074426</v>
       </c>
       <c r="C37" t="n">
-        <v>750.7031546780395</v>
+        <v>480.0714892906675</v>
       </c>
       <c r="D37" t="n">
-        <v>584.8251618795622</v>
+        <v>480.0714892906675</v>
       </c>
       <c r="E37" t="n">
-        <v>584.8251618795622</v>
+        <v>310.3134855414048</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1181078413184</v>
+        <v>133.606431503161</v>
       </c>
       <c r="G37" t="n">
-        <v>243.3769274538368</v>
+        <v>133.606431503161</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0328668331527</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="I37" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="J37" t="n">
-        <v>193.4229291362738</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K37" t="n">
-        <v>564.9814842749674</v>
+        <v>478.4017991102776</v>
       </c>
       <c r="L37" t="n">
-        <v>688.8522858932654</v>
+        <v>602.2726007285756</v>
       </c>
       <c r="M37" t="n">
-        <v>1278.940545412708</v>
+        <v>1192.360860248018</v>
       </c>
       <c r="N37" t="n">
-        <v>1406.439457216597</v>
+        <v>1762.118575209552</v>
       </c>
       <c r="O37" t="n">
-        <v>1694.171924550258</v>
+        <v>2209.871593384931</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.447874698283</v>
+        <v>2310.640649562614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2380.407920793271</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R37" t="n">
         <v>2396.879013470038</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.452474974273</v>
+        <v>2396.879013470038</v>
       </c>
       <c r="T37" t="n">
-        <v>2010.20525087768</v>
+        <v>2154.631789373444</v>
       </c>
       <c r="U37" t="n">
-        <v>2010.20525087768</v>
+        <v>1876.245157422187</v>
       </c>
       <c r="V37" t="n">
-        <v>1859.921314679989</v>
+        <v>1589.289649292617</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.894910266281</v>
+        <v>1317.263244878909</v>
       </c>
       <c r="X37" t="n">
-        <v>1342.503155599693</v>
+        <v>1071.871490212322</v>
       </c>
       <c r="Y37" t="n">
-        <v>1115.083484913802</v>
+        <v>844.4518195264297</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>693.7530287506621</v>
+        <v>2024.98882552985</v>
       </c>
       <c r="C38" t="n">
-        <v>255.6105559340854</v>
+        <v>1586.846352713274</v>
       </c>
       <c r="D38" t="n">
-        <v>255.6105559340854</v>
+        <v>1150.936567887718</v>
       </c>
       <c r="E38" t="n">
-        <v>255.6105559340854</v>
+        <v>717.1618230460132</v>
       </c>
       <c r="F38" t="n">
-        <v>47.93758026940077</v>
+        <v>717.1618230460132</v>
       </c>
       <c r="G38" t="n">
-        <v>47.93758026940077</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H38" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="I38" t="n">
         <v>119.1375305205814</v>
@@ -7189,13 +7189,13 @@
         <v>1463.745021152413</v>
       </c>
       <c r="O38" t="n">
-        <v>1812.520942995561</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P38" t="n">
-        <v>2079.621234174831</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.202429185898</v>
+        <v>2244.382021884042</v>
       </c>
       <c r="R38" t="n">
         <v>2396.879013470038</v>
@@ -7204,22 +7204,22 @@
         <v>2396.879013470038</v>
       </c>
       <c r="T38" t="n">
-        <v>2185.107761939151</v>
+        <v>2185.10776193915</v>
       </c>
       <c r="U38" t="n">
-        <v>1926.037070460665</v>
+        <v>2185.10776193915</v>
       </c>
       <c r="V38" t="n">
-        <v>1926.037070460665</v>
+        <v>2185.10776193915</v>
       </c>
       <c r="W38" t="n">
-        <v>1521.181615871698</v>
+        <v>2185.10776193915</v>
       </c>
       <c r="X38" t="n">
-        <v>1102.039152451009</v>
+        <v>2185.10776193915</v>
       </c>
       <c r="Y38" t="n">
-        <v>693.7530287506621</v>
+        <v>2024.98882552985</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>543.3023337868367</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C39" t="n">
-        <v>436.845872623479</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7555837700322</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E39" t="n">
-        <v>247.6351690969859</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F39" t="n">
-        <v>164.2513307131475</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280452</v>
+        <v>79.88023030280451</v>
       </c>
       <c r="H39" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="I39" t="n">
-        <v>82.15431644087693</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J39" t="n">
-        <v>176.0476557873441</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K39" t="n">
-        <v>336.5263278415143</v>
+        <v>336.5263278415142</v>
       </c>
       <c r="L39" t="n">
-        <v>552.3097067165363</v>
+        <v>552.3097067165364</v>
       </c>
       <c r="M39" t="n">
-        <v>804.1187320192337</v>
+        <v>804.1187320192339</v>
       </c>
       <c r="N39" t="n">
         <v>1062.592392940554</v>
@@ -7295,10 +7295,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X39" t="n">
-        <v>791.0920140873791</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y39" t="n">
-        <v>664.6062348665998</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>566.9643495736824</v>
+        <v>762.4036967581184</v>
       </c>
       <c r="C40" t="n">
-        <v>394.4026380569073</v>
+        <v>589.8419852413433</v>
       </c>
       <c r="D40" t="n">
-        <v>394.4026380569073</v>
+        <v>589.8419852413433</v>
       </c>
       <c r="E40" t="n">
-        <v>224.6446343076446</v>
+        <v>420.0839814920806</v>
       </c>
       <c r="F40" t="n">
-        <v>47.93758026940077</v>
+        <v>243.3769274538368</v>
       </c>
       <c r="G40" t="n">
-        <v>47.93758026940077</v>
+        <v>243.3769274538368</v>
       </c>
       <c r="H40" t="n">
-        <v>47.93758026940077</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="I40" t="n">
-        <v>47.93758026940077</v>
+        <v>47.93758026940075</v>
       </c>
       <c r="J40" t="n">
         <v>106.8432439715839</v>
       </c>
       <c r="K40" t="n">
-        <v>333.9632525161734</v>
+        <v>203.6433445391421</v>
       </c>
       <c r="L40" t="n">
-        <v>876.0439359024324</v>
+        <v>745.7240279254011</v>
       </c>
       <c r="M40" t="n">
-        <v>1006.648328240962</v>
+        <v>1335.812287444844</v>
       </c>
       <c r="N40" t="n">
-        <v>1576.406043202496</v>
+        <v>1905.570002406378</v>
       </c>
       <c r="O40" t="n">
-        <v>1694.171924550258</v>
+        <v>2209.871593384931</v>
       </c>
       <c r="P40" t="n">
-        <v>2142.447874698283</v>
+        <v>2310.640649562614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2380.407920793271</v>
+        <v>2380.40792079327</v>
       </c>
       <c r="R40" t="n">
         <v>2396.879013470038</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.452474974273</v>
+        <v>2252.452474974272</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.20525087768</v>
+        <v>2010.205250877679</v>
       </c>
       <c r="U40" t="n">
-        <v>1731.818618926423</v>
+        <v>1731.818618926422</v>
       </c>
       <c r="V40" t="n">
-        <v>1444.863110796853</v>
+        <v>1444.863110796852</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.836706383145</v>
+        <v>1427.033740829585</v>
       </c>
       <c r="X40" t="n">
-        <v>927.4449517165574</v>
+        <v>1181.641986162997</v>
       </c>
       <c r="Y40" t="n">
-        <v>700.0252810306656</v>
+        <v>954.2223154771054</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1129.815670475325</v>
+        <v>1530.944687111453</v>
       </c>
       <c r="C41" t="n">
-        <v>1129.815670475325</v>
+        <v>1092.802214294876</v>
       </c>
       <c r="D41" t="n">
-        <v>1129.815670475325</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E41" t="n">
-        <v>1129.815670475325</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>701.9482408845324</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>302.4455495640096</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7453,10 +7453,10 @@
         <v>1957.244257596361</v>
       </c>
       <c r="X41" t="n">
-        <v>1538.101794175671</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y41" t="n">
-        <v>1129.815670475325</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.0469809559645</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>544.4852694391894</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>378.6072766407121</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>208.8492728914494</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>208.8492728914494</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>208.8492728914494</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119945</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505238</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7605,16 +7605,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X43" t="n">
-        <v>1136.285270360843</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.8655996749517</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2013.98275358362</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C44" t="n">
-        <v>2013.98275358362</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D44" t="n">
-        <v>1578.072968758064</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2273.053445062106</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2013.98275358362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.98275358362</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.98275358362</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2013.98275358362</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y44" t="n">
-        <v>2013.98275358362</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.5506608361497</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9889493193747</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D46" t="n">
-        <v>589.1109565208974</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="E46" t="n">
-        <v>419.3529527716346</v>
+        <v>516.0092736156976</v>
       </c>
       <c r="F46" t="n">
-        <v>242.6458987333908</v>
+        <v>339.3022195774538</v>
       </c>
       <c r="G46" t="n">
         <v>242.6458987333908</v>
@@ -7815,13 +7815,13 @@
         <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>875.5973915434845</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1288.378132818745</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000715</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871145</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W46" t="n">
-        <v>1592.180704907616</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X46" t="n">
-        <v>1346.788950241029</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1119.369279555137</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O6" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8622,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O10" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639912</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>381.8346095077682</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>263.8716243249362</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,10 +9102,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>36.18222959783236</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>36.18222959783361</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>213.3743145442936</v>
+        <v>300.0538539227692</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>36.18222959783361</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>36.18222959783225</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>18.52821693581839</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>186.9458001747172</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L23" t="n">
-        <v>452.3309201603316</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>174.574751490431</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,7 +9807,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>173.410224902603</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>213.2711425132356</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>413.6345291375271</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,7 +10044,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>173.410224902603</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>452.3309201603319</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>174.574751490431</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>103.3550520324804</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>187.2544722033713</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>169.3062583899061</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>20.91758768940758</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>36.18222959783418</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>36.18222959783316</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10755,16 +10755,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>171.6834201877766</v>
+        <v>333.3203402299162</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>36.18222959783407</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>36.18222959783316</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>131.6362706838701</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>188.4199087179711</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L43" t="n">
-        <v>263.1722038422878</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>288.1634641124963</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>227.7383220431375</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23269,7 +23269,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.72249953596111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>112.1439365845613</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>93.6323136182219</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>189.13516098772</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1673170309998</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.74439941335118</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>246.3025016950724</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>138.1971908870358</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>26.78737188388894</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>54.32889954810716</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>78.28160586218502</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>173.9348462792648</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>354.1066772403195</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.242861168651</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>185.3495195625854</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.0873142825475</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>140.6774929506126</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>225.702752908784</v>
+        <v>62.36240318216795</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>362.1943413879403</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>142.9561278189428</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>15.1638990497446</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>95.17000544641132</v>
       </c>
     </row>
     <row r="33">
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.07898836145642</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>114.4876473603709</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>46.20845729305466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>135.3048562125602</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>217.9925093868465</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>245.6855154181364</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.17011038938386</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>251.6550641019764</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>87.02407209525069</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>14.33772790662437</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45865958352198</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>87.40645861671632</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25870,19 +25870,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>163.3138540411549</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>190.6650602925683</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>67.40401094798439</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>211.5117283456777</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334938.4150830974</v>
+        <v>334938.4150830975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340016.1140891851</v>
+        <v>340016.1140891849</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340016.1140891851</v>
+        <v>340016.1140891849</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>422916.3628556239</v>
+        <v>422916.3628556241</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>422916.362855624</v>
+        <v>422916.3628556241</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340016.1140891852</v>
+        <v>340016.114089185</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>340016.1140891852</v>
+        <v>340016.114089185</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334938.4150830975</v>
+        <v>334938.4150830976</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="F2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="G2" t="n">
-        <v>230745.044470703</v>
+        <v>230745.0444707029</v>
       </c>
       <c r="H2" t="n">
-        <v>230745.044470703</v>
+        <v>230745.0444707029</v>
       </c>
       <c r="I2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.33437242</v>
       </c>
       <c r="J2" t="n">
         <v>274231.3343724199</v>
       </c>
       <c r="K2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.3343724198</v>
       </c>
       <c r="L2" t="n">
-        <v>274231.33437242</v>
+        <v>274231.3343724198</v>
       </c>
       <c r="M2" t="n">
         <v>230745.044470703</v>
       </c>
       <c r="N2" t="n">
-        <v>230745.0444707031</v>
+        <v>230745.044470703</v>
       </c>
       <c r="O2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="P2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085543163</v>
+        <v>2504.550085543062</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39672.17110964674</v>
+        <v>39672.17110964687</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736729</v>
+        <v>10809.82265736726</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.70586096629</v>
+        <v>99576.70586096625</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>301049.4928748383</v>
       </c>
       <c r="C4" t="n">
-        <v>301049.4928748384</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="D4" t="n">
         <v>301049.4928748383</v>
@@ -26432,28 +26432,28 @@
         <v>12946.16329191559</v>
       </c>
       <c r="G4" t="n">
-        <v>14263.75365561255</v>
+        <v>14263.7536556125</v>
       </c>
       <c r="H4" t="n">
-        <v>14263.75365561255</v>
+        <v>14263.75365561249</v>
       </c>
       <c r="I4" t="n">
         <v>35775.18408734677</v>
       </c>
       <c r="J4" t="n">
-        <v>35775.18408734677</v>
+        <v>35775.18408734679</v>
       </c>
       <c r="K4" t="n">
+        <v>35775.18408734679</v>
+      </c>
+      <c r="L4" t="n">
         <v>35775.18408734678</v>
       </c>
-      <c r="L4" t="n">
-        <v>35775.18408734679</v>
-      </c>
       <c r="M4" t="n">
-        <v>14263.75365561257</v>
+        <v>14263.75365561253</v>
       </c>
       <c r="N4" t="n">
-        <v>14263.75365561256</v>
+        <v>14263.75365561253</v>
       </c>
       <c r="O4" t="n">
         <v>12946.1632919156</v>
@@ -26484,10 +26484,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46606.6630371768</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="H5" t="n">
-        <v>46606.6630371768</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,10 +26502,10 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46606.6630371768</v>
+        <v>46606.66303717679</v>
       </c>
       <c r="N5" t="n">
-        <v>46606.6630371768</v>
+        <v>46606.66303717679</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26524,46 +26524,46 @@
         <v>37672.15409412155</v>
       </c>
       <c r="C6" t="n">
-        <v>51517.76186041809</v>
+        <v>51517.76186041826</v>
       </c>
       <c r="D6" t="n">
-        <v>51517.76186041821</v>
+        <v>51517.76186041803</v>
       </c>
       <c r="E6" t="n">
-        <v>-369715.2161261195</v>
+        <v>-370269.0965693414</v>
       </c>
       <c r="F6" t="n">
-        <v>169084.2338846317</v>
+        <v>168530.3534414097</v>
       </c>
       <c r="G6" t="n">
-        <v>167370.0776923705</v>
+        <v>166825.3819597848</v>
       </c>
       <c r="H6" t="n">
-        <v>169874.6277779136</v>
+        <v>169329.9320453279</v>
       </c>
       <c r="I6" t="n">
-        <v>143106.6974076247</v>
+        <v>142711.9543988379</v>
       </c>
       <c r="J6" t="n">
-        <v>171969.0458599041</v>
+        <v>171574.3028511174</v>
       </c>
       <c r="K6" t="n">
-        <v>182778.8685172714</v>
+        <v>182384.1255084846</v>
       </c>
       <c r="L6" t="n">
-        <v>182778.8685172714</v>
+        <v>182384.1255084846</v>
       </c>
       <c r="M6" t="n">
-        <v>70297.92191694738</v>
+        <v>69753.22618436172</v>
       </c>
       <c r="N6" t="n">
-        <v>169874.6277779137</v>
+        <v>169329.932045328</v>
       </c>
       <c r="O6" t="n">
-        <v>169084.2338846317</v>
+        <v>168530.3534414098</v>
       </c>
       <c r="P6" t="n">
-        <v>169084.2338846318</v>
+        <v>168530.3534414098</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>599.2197533675095</v>
+        <v>599.2197533675092</v>
       </c>
       <c r="H4" t="n">
-        <v>599.2197533675095</v>
+        <v>599.2197533675092</v>
       </c>
       <c r="I4" t="n">
-        <v>748.4075614369991</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26822,10 +26822,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>599.2197533675096</v>
+        <v>599.2197533675094</v>
       </c>
       <c r="N4" t="n">
-        <v>599.2197533675096</v>
+        <v>599.2197533675094</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.137859005575505</v>
+        <v>9.137859005575137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.1878080694896</v>
+        <v>149.1878080694901</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752751</v>
+        <v>41.3150030475274</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.579083244917</v>
+        <v>399.5790832449168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.137859005575505</v>
+        <v>9.137859005575137</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>131.670169027508</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>228.234040354749</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>92.48660254844231</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="7">
@@ -27785,13 +27785,13 @@
         <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>159.7533718952811</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27833,16 +27833,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573791</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>43.21623578895061</v>
@@ -27988,10 +27988,10 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>227.7512255173414</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>209.9588623764525</v>
       </c>
     </row>
     <row r="11">
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -33025,7 +33025,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33034,7 +33034,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33736,7 +33736,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33751,7 +33751,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -34459,13 +34459,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O6" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O10" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -35409,25 +35409,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>70.1303420226447</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>513.7582381325453</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
@@ -35585,10 +35585,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,7 +35661,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184533</v>
@@ -35725,25 +35725,25 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>395.7952529497134</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954891</v>
@@ -35822,13 +35822,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104033</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>305.9805035162872</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,10 +35962,10 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>345.2979431690708</v>
+        <v>431.9774825475464</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,7 +36123,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>305.9805035162872</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>154.0373652383782</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.5623597691677</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36223,7 +36223,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>116.3060962969883</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>312.0678220113818</v>
       </c>
       <c r="M22" t="n">
         <v>596.0487469893359</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L23" t="n">
-        <v>748.407561436999</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,16 +36372,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>377.1820191783781</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>63.71862400934436</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
-        <v>302.1970045024914</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>542.713453794839</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>748.4075614369992</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36682,7 +36682,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>63.71862400934436</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>302.1970045024914</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>748.4075614369992</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>490.6914328452722</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
@@ -36998,10 +36998,10 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>235.2786806572576</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37071,10 +37071,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,16 +37083,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>389.8617398913184</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>267.084137751076</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>152.8412163141847</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37308,13 +37308,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>274.8404623041179</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>238.7894972857803</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37396,10 +37396,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>290.6388558925864</v>
+        <v>452.275775934726</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>352.2989109526752</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>154.0373652383792</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>229.41415004504</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>307.3753444227809</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L43" t="n">
-        <v>388.2942256789524</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38183,16 +38183,16 @@
         <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>416.9502437123847</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
